--- a/Datasets/erreurs_111.xlsx
+++ b/Datasets/erreurs_111.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,50 +455,14 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>407</v>
+        <v>6</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Abstract</t>
+          <t>Link</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="n">
-        <v>407</v>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>References</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>passed</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
-        <v>407</v>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Pages</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
         <is>
           <t>passed</t>
         </is>

--- a/Datasets/erreurs_111.xlsx
+++ b/Datasets/erreurs_111.xlsx
@@ -455,16 +455,38 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>152</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Link</t>
+          <t>list index out of range</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>passed</t>
+          <t xml:space="preserve">Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 57, in get_from_already_extract
+    new_metadata = htmlParser.get_metadata_from_already_extract(file, tmp_source)
+                   ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 187, in get_metadata_from_already_extract
+    metadata = get_metadata_from_bibtex(bib_data)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/htmlParser.py", line 112, in get_metadata_from_bibtex
+    bib_key = list(bib_data.entries.keys())[0]
+              ~~~~~~~~~~~~~~~~~~~~~~~~~~~~~^^^
+IndexError: list index out of range
+During handling of the above exception, another exception occurred:
+Traceback (most recent call last):
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 273, in main
+    metadata = extract_without_link(row, already_extracted_files, web_scraper)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 107, in extract_without_link
+    metadata = get_from_already_extract(formated_name, already_extracted_files)
+               ^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^^
+  File "/home/ggenois/PycharmProjects/IFT3150-ProjetCurationMetadonnees/Scripts/findMissingMetadata.py", line 66, in get_from_already_extract
+    raise Exception(e)
+Exception: list index out of range
+</t>
         </is>
       </c>
     </row>
